--- a/输出/区域经理单笔退还.xlsx
+++ b/输出/区域经理单笔退还.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm_project\区域经理风险倒扣\输出\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FCBCA542-200D-4073-BAA9-2FA5DDC91995}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="290">
   <si>
     <t>贷款编号</t>
   </si>
@@ -895,32 +890,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -935,43 +921,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1259,16 +1228,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1303,8 +1276,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1316,24 +1289,25 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="G2">
+      <c r="E2" t="s"/>
+      <c r="F2" t="s"/>
+      <c r="G2" t="n">
         <v>13170011</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>201701</v>
       </c>
-      <c r="J2">
-        <v>201808</v>
-      </c>
-      <c r="L2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="J2" t="s"/>
+      <c r="K2" t="s"/>
+      <c r="L2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -1345,24 +1319,25 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="G3">
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+      <c r="G3" t="n">
         <v>3080035</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>201701</v>
       </c>
-      <c r="J3">
-        <v>201808</v>
-      </c>
-      <c r="L3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
+      <c r="L3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -1374,24 +1349,25 @@
       <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="G4">
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="n">
         <v>25260041</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="I4">
-        <v>201807</v>
-      </c>
-      <c r="J4">
-        <v>201808</v>
-      </c>
-      <c r="L4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+      <c r="I4" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
+      <c r="L4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -1403,24 +1379,25 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="G5">
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+      <c r="G5" t="n">
         <v>12020064</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>201701</v>
       </c>
-      <c r="J5">
-        <v>201808</v>
-      </c>
-      <c r="L5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+      <c r="J5" t="s"/>
+      <c r="K5" t="s"/>
+      <c r="L5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -1432,33 +1409,31 @@
       <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>12160042</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>23100049</v>
       </c>
       <c r="H6" t="s">
         <v>31</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>201701</v>
       </c>
-      <c r="J6">
-        <v>201808</v>
-      </c>
-      <c r="K6">
+      <c r="J6" t="s"/>
+      <c r="K6" t="n">
         <v>18</v>
       </c>
-      <c r="L6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+      <c r="L6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1470,33 +1445,31 @@
       <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>12160042</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>23100049</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>201701</v>
       </c>
-      <c r="J7">
-        <v>201808</v>
-      </c>
-      <c r="K7">
+      <c r="J7" t="s"/>
+      <c r="K7" t="n">
         <v>18</v>
       </c>
-      <c r="L7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+      <c r="L7" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1508,24 +1481,25 @@
       <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="G8">
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+      <c r="G8" t="n">
         <v>4250032</v>
       </c>
       <c r="H8" t="s">
         <v>36</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>201702</v>
       </c>
-      <c r="J8">
-        <v>201808</v>
-      </c>
-      <c r="L8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+      <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+      <c r="L8" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -1537,24 +1511,25 @@
       <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="G9">
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+      <c r="G9" t="n">
         <v>24030027</v>
       </c>
       <c r="H9" t="s">
         <v>40</v>
       </c>
-      <c r="I9">
-        <v>201807</v>
-      </c>
-      <c r="J9">
-        <v>201808</v>
-      </c>
-      <c r="L9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+      <c r="I9" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -1566,24 +1541,25 @@
       <c r="D10" t="s">
         <v>43</v>
       </c>
-      <c r="G10">
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+      <c r="G10" t="n">
         <v>24030027</v>
       </c>
       <c r="H10" t="s">
         <v>40</v>
       </c>
-      <c r="I10">
-        <v>201807</v>
-      </c>
-      <c r="J10">
-        <v>201808</v>
-      </c>
-      <c r="L10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+      <c r="I10" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
+      <c r="L10" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -1595,24 +1571,25 @@
       <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="G11">
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="n">
         <v>24030027</v>
       </c>
       <c r="H11" t="s">
         <v>40</v>
       </c>
-      <c r="I11">
-        <v>201807</v>
-      </c>
-      <c r="J11">
-        <v>201808</v>
-      </c>
-      <c r="L11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
+      <c r="I11" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J11" t="s"/>
+      <c r="K11" t="s"/>
+      <c r="L11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -1624,24 +1601,25 @@
       <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="G12">
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="n">
         <v>19250049</v>
       </c>
       <c r="H12" t="s">
         <v>50</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>201806</v>
       </c>
-      <c r="J12">
-        <v>201808</v>
-      </c>
-      <c r="L12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -1653,15 +1631,19 @@
       <c r="D13" t="s">
         <v>53</v>
       </c>
-      <c r="I13">
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="n">
         <v>201706</v>
       </c>
-      <c r="J13">
-        <v>201808</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+      <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -1673,24 +1655,25 @@
       <c r="D14" t="s">
         <v>56</v>
       </c>
-      <c r="G14">
+      <c r="E14" t="s"/>
+      <c r="F14" t="s"/>
+      <c r="G14" t="n">
         <v>25040006</v>
       </c>
       <c r="H14" t="s">
         <v>57</v>
       </c>
-      <c r="I14">
-        <v>201807</v>
-      </c>
-      <c r="J14">
-        <v>201808</v>
-      </c>
-      <c r="L14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
+      <c r="I14" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J14" t="s"/>
+      <c r="K14" t="s"/>
+      <c r="L14" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -1702,24 +1685,25 @@
       <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="G15">
+      <c r="E15" t="s"/>
+      <c r="F15" t="s"/>
+      <c r="G15" t="n">
         <v>25040006</v>
       </c>
       <c r="H15" t="s">
         <v>57</v>
       </c>
-      <c r="I15">
-        <v>201807</v>
-      </c>
-      <c r="J15">
-        <v>201808</v>
-      </c>
-      <c r="L15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
+      <c r="I15" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J15" t="s"/>
+      <c r="K15" t="s"/>
+      <c r="L15" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -1731,24 +1715,25 @@
       <c r="D16" t="s">
         <v>63</v>
       </c>
-      <c r="G16">
+      <c r="E16" t="s"/>
+      <c r="F16" t="s"/>
+      <c r="G16" t="n">
         <v>3030001</v>
       </c>
       <c r="H16" t="s">
         <v>64</v>
       </c>
-      <c r="I16">
-        <v>201807</v>
-      </c>
-      <c r="J16">
-        <v>201808</v>
-      </c>
-      <c r="L16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
+      <c r="I16" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J16" t="s"/>
+      <c r="K16" t="s"/>
+      <c r="L16" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -1760,24 +1745,25 @@
       <c r="D17" t="s">
         <v>67</v>
       </c>
-      <c r="G17">
+      <c r="E17" t="s"/>
+      <c r="F17" t="s"/>
+      <c r="G17" t="n">
         <v>26240029</v>
       </c>
       <c r="H17" t="s">
         <v>68</v>
       </c>
-      <c r="I17">
-        <v>201807</v>
-      </c>
-      <c r="J17">
-        <v>201808</v>
-      </c>
-      <c r="L17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
+      <c r="I17" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J17" t="s"/>
+      <c r="K17" t="s"/>
+      <c r="L17" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -1789,24 +1775,25 @@
       <c r="D18" t="s">
         <v>71</v>
       </c>
-      <c r="G18">
+      <c r="E18" t="s"/>
+      <c r="F18" t="s"/>
+      <c r="G18" t="n">
         <v>26240029</v>
       </c>
       <c r="H18" t="s">
         <v>68</v>
       </c>
-      <c r="I18">
-        <v>201807</v>
-      </c>
-      <c r="J18">
-        <v>201808</v>
-      </c>
-      <c r="L18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
+      <c r="I18" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J18" t="s"/>
+      <c r="K18" t="s"/>
+      <c r="L18" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -1818,24 +1805,25 @@
       <c r="D19" t="s">
         <v>74</v>
       </c>
-      <c r="G19">
+      <c r="E19" t="s"/>
+      <c r="F19" t="s"/>
+      <c r="G19" t="n">
         <v>11240002</v>
       </c>
       <c r="H19" t="s">
         <v>75</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>201701</v>
       </c>
-      <c r="J19">
-        <v>201808</v>
-      </c>
-      <c r="L19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
+      <c r="J19" t="s"/>
+      <c r="K19" t="s"/>
+      <c r="L19" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -1847,24 +1835,25 @@
       <c r="D20" t="s">
         <v>78</v>
       </c>
-      <c r="G20">
+      <c r="E20" t="s"/>
+      <c r="F20" t="s"/>
+      <c r="G20" t="n">
         <v>11240002</v>
       </c>
       <c r="H20" t="s">
         <v>75</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>201701</v>
       </c>
-      <c r="J20">
-        <v>201808</v>
-      </c>
-      <c r="L20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
+      <c r="J20" t="s"/>
+      <c r="K20" t="s"/>
+      <c r="L20" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -1876,24 +1865,25 @@
       <c r="D21" t="s">
         <v>81</v>
       </c>
-      <c r="G21">
+      <c r="E21" t="s"/>
+      <c r="F21" t="s"/>
+      <c r="G21" t="n">
         <v>26040008</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>201701</v>
       </c>
-      <c r="J21">
-        <v>201808</v>
-      </c>
-      <c r="L21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
+      <c r="J21" t="s"/>
+      <c r="K21" t="s"/>
+      <c r="L21" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -1905,24 +1895,25 @@
       <c r="D22" t="s">
         <v>85</v>
       </c>
-      <c r="G22">
+      <c r="E22" t="s"/>
+      <c r="F22" t="s"/>
+      <c r="G22" t="n">
         <v>12260002</v>
       </c>
       <c r="H22" t="s">
         <v>86</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>201701</v>
       </c>
-      <c r="J22">
-        <v>201808</v>
-      </c>
-      <c r="L22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
+      <c r="J22" t="s"/>
+      <c r="K22" t="s"/>
+      <c r="L22" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -1934,24 +1925,25 @@
       <c r="D23" t="s">
         <v>89</v>
       </c>
-      <c r="G23">
+      <c r="E23" t="s"/>
+      <c r="F23" t="s"/>
+      <c r="G23" t="n">
         <v>24260027</v>
       </c>
       <c r="H23" t="s">
         <v>90</v>
       </c>
-      <c r="I23">
-        <v>201807</v>
-      </c>
-      <c r="J23">
-        <v>201808</v>
-      </c>
-      <c r="L23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
+      <c r="I23" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J23" t="s"/>
+      <c r="K23" t="s"/>
+      <c r="L23" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -1963,24 +1955,25 @@
       <c r="D24" t="s">
         <v>93</v>
       </c>
-      <c r="G24">
+      <c r="E24" t="s"/>
+      <c r="F24" t="s"/>
+      <c r="G24" t="n">
         <v>3230023</v>
       </c>
       <c r="H24" t="s">
         <v>94</v>
       </c>
-      <c r="I24">
-        <v>201807</v>
-      </c>
-      <c r="J24">
-        <v>201808</v>
-      </c>
-      <c r="L24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
+      <c r="I24" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J24" t="s"/>
+      <c r="K24" t="s"/>
+      <c r="L24" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -1992,24 +1985,25 @@
       <c r="D25" t="s">
         <v>97</v>
       </c>
-      <c r="G25">
+      <c r="E25" t="s"/>
+      <c r="F25" t="s"/>
+      <c r="G25" t="n">
         <v>3240018</v>
       </c>
       <c r="H25" t="s">
         <v>98</v>
       </c>
-      <c r="I25">
-        <v>201807</v>
-      </c>
-      <c r="J25">
-        <v>201808</v>
-      </c>
-      <c r="L25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
+      <c r="I25" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J25" t="s"/>
+      <c r="K25" t="s"/>
+      <c r="L25" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -2021,24 +2015,25 @@
       <c r="D26" t="s">
         <v>101</v>
       </c>
-      <c r="G26">
+      <c r="E26" t="s"/>
+      <c r="F26" t="s"/>
+      <c r="G26" t="n">
         <v>23080028</v>
       </c>
       <c r="H26" t="s">
         <v>102</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>201703</v>
       </c>
-      <c r="J26">
-        <v>201808</v>
-      </c>
-      <c r="L26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
+      <c r="J26" t="s"/>
+      <c r="K26" t="s"/>
+      <c r="L26" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -2050,24 +2045,25 @@
       <c r="D27" t="s">
         <v>105</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>13040003</v>
       </c>
       <c r="F27" t="s">
         <v>106</v>
       </c>
-      <c r="I27">
-        <v>201807</v>
-      </c>
-      <c r="J27">
-        <v>201808</v>
-      </c>
-      <c r="K27">
+      <c r="G27" t="s"/>
+      <c r="H27" t="s"/>
+      <c r="I27" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J27" t="s"/>
+      <c r="K27" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
+      <c r="L27" t="s"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -2079,24 +2075,25 @@
       <c r="D28" t="s">
         <v>109</v>
       </c>
-      <c r="G28">
+      <c r="E28" t="s"/>
+      <c r="F28" t="s"/>
+      <c r="G28" t="n">
         <v>26120142</v>
       </c>
       <c r="H28" t="s">
         <v>110</v>
       </c>
-      <c r="I28">
-        <v>201807</v>
-      </c>
-      <c r="J28">
-        <v>201808</v>
-      </c>
-      <c r="L28">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
+      <c r="I28" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J28" t="s"/>
+      <c r="K28" t="s"/>
+      <c r="L28" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -2108,24 +2105,25 @@
       <c r="D29" t="s">
         <v>113</v>
       </c>
-      <c r="G29">
+      <c r="E29" t="s"/>
+      <c r="F29" t="s"/>
+      <c r="G29" t="n">
         <v>26120142</v>
       </c>
       <c r="H29" t="s">
         <v>110</v>
       </c>
-      <c r="I29">
-        <v>201807</v>
-      </c>
-      <c r="J29">
-        <v>201808</v>
-      </c>
-      <c r="L29">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="1">
+      <c r="I29" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J29" t="s"/>
+      <c r="K29" t="s"/>
+      <c r="L29" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -2137,24 +2135,25 @@
       <c r="D30" t="s">
         <v>116</v>
       </c>
-      <c r="G30">
+      <c r="E30" t="s"/>
+      <c r="F30" t="s"/>
+      <c r="G30" t="n">
         <v>26120142</v>
       </c>
       <c r="H30" t="s">
         <v>110</v>
       </c>
-      <c r="I30">
-        <v>201807</v>
-      </c>
-      <c r="J30">
-        <v>201808</v>
-      </c>
-      <c r="L30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="1">
+      <c r="I30" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J30" t="s"/>
+      <c r="K30" t="s"/>
+      <c r="L30" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -2166,24 +2165,25 @@
       <c r="D31" t="s">
         <v>119</v>
       </c>
-      <c r="G31">
+      <c r="E31" t="s"/>
+      <c r="F31" t="s"/>
+      <c r="G31" t="n">
         <v>10240031</v>
       </c>
       <c r="H31" t="s">
         <v>120</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>201701</v>
       </c>
-      <c r="J31">
-        <v>201808</v>
-      </c>
-      <c r="L31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="1">
+      <c r="J31" t="s"/>
+      <c r="K31" t="s"/>
+      <c r="L31" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -2195,24 +2195,25 @@
       <c r="D32" t="s">
         <v>123</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>13010008</v>
       </c>
       <c r="F32" t="s">
         <v>124</v>
       </c>
-      <c r="I32">
+      <c r="G32" t="s"/>
+      <c r="H32" t="s"/>
+      <c r="I32" t="n">
         <v>201806</v>
       </c>
-      <c r="J32">
-        <v>201808</v>
-      </c>
-      <c r="K32">
+      <c r="J32" t="s"/>
+      <c r="K32" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="1">
+      <c r="L32" t="s"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -2224,24 +2225,25 @@
       <c r="D33" t="s">
         <v>127</v>
       </c>
-      <c r="G33">
+      <c r="E33" t="s"/>
+      <c r="F33" t="s"/>
+      <c r="G33" t="n">
         <v>17250011</v>
       </c>
       <c r="H33" t="s">
         <v>128</v>
       </c>
-      <c r="I33">
-        <v>201807</v>
-      </c>
-      <c r="J33">
-        <v>201808</v>
-      </c>
-      <c r="L33">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="1">
+      <c r="I33" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J33" t="s"/>
+      <c r="K33" t="s"/>
+      <c r="L33" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -2253,33 +2255,31 @@
       <c r="D34" t="s">
         <v>131</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>25250054</v>
       </c>
       <c r="F34" t="s">
         <v>132</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="n">
         <v>11200003</v>
       </c>
       <c r="H34" t="s">
         <v>133</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="n">
         <v>201701</v>
       </c>
-      <c r="J34">
-        <v>201808</v>
-      </c>
-      <c r="K34">
+      <c r="J34" t="s"/>
+      <c r="K34" t="n">
         <v>18</v>
       </c>
-      <c r="L34">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A35" s="1">
+      <c r="L34" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -2291,33 +2291,31 @@
       <c r="D35" t="s">
         <v>136</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>19100042</v>
       </c>
       <c r="F35" t="s">
         <v>137</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="n">
         <v>12200029</v>
       </c>
       <c r="H35" t="s">
         <v>138</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="n">
         <v>201701</v>
       </c>
-      <c r="J35">
-        <v>201808</v>
-      </c>
-      <c r="K35">
+      <c r="J35" t="s"/>
+      <c r="K35" t="n">
         <v>18</v>
       </c>
-      <c r="L35">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A36" s="1">
+      <c r="L35" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -2329,33 +2327,31 @@
       <c r="D36" t="s">
         <v>141</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>12260069</v>
       </c>
       <c r="F36" t="s">
         <v>142</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="n">
         <v>23100093</v>
       </c>
       <c r="H36" t="s">
         <v>143</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>201701</v>
       </c>
-      <c r="J36">
-        <v>201808</v>
-      </c>
-      <c r="K36">
+      <c r="J36" t="s"/>
+      <c r="K36" t="n">
         <v>18</v>
       </c>
-      <c r="L36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="1">
+      <c r="L36" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -2367,33 +2363,31 @@
       <c r="D37" t="s">
         <v>146</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>19100042</v>
       </c>
       <c r="F37" t="s">
         <v>137</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="n">
         <v>12200029</v>
       </c>
       <c r="H37" t="s">
         <v>138</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="n">
         <v>201703</v>
       </c>
-      <c r="J37">
-        <v>201808</v>
-      </c>
-      <c r="K37">
+      <c r="J37" t="s"/>
+      <c r="K37" t="n">
         <v>18</v>
       </c>
-      <c r="L37">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="1">
+      <c r="L37" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
@@ -2405,24 +2399,25 @@
       <c r="D38" t="s">
         <v>149</v>
       </c>
-      <c r="G38">
+      <c r="E38" t="s"/>
+      <c r="F38" t="s"/>
+      <c r="G38" t="n">
         <v>26100136</v>
       </c>
       <c r="H38" t="s">
         <v>150</v>
       </c>
-      <c r="I38">
-        <v>201807</v>
-      </c>
-      <c r="J38">
-        <v>201808</v>
-      </c>
-      <c r="L38">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="1">
+      <c r="I38" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J38" t="s"/>
+      <c r="K38" t="s"/>
+      <c r="L38" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
@@ -2434,24 +2429,25 @@
       <c r="D39" t="s">
         <v>153</v>
       </c>
-      <c r="G39">
+      <c r="E39" t="s"/>
+      <c r="F39" t="s"/>
+      <c r="G39" t="n">
         <v>12200029</v>
       </c>
       <c r="H39" t="s">
         <v>138</v>
       </c>
-      <c r="I39">
-        <v>201807</v>
-      </c>
-      <c r="J39">
-        <v>201808</v>
-      </c>
-      <c r="L39">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="1">
+      <c r="I39" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J39" t="s"/>
+      <c r="K39" t="s"/>
+      <c r="L39" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -2463,24 +2459,25 @@
       <c r="D40" t="s">
         <v>156</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>20250044</v>
       </c>
       <c r="F40" t="s">
         <v>157</v>
       </c>
-      <c r="I40">
+      <c r="G40" t="s"/>
+      <c r="H40" t="s"/>
+      <c r="I40" t="n">
         <v>201701</v>
       </c>
-      <c r="J40">
-        <v>201808</v>
-      </c>
-      <c r="K40">
+      <c r="J40" t="s"/>
+      <c r="K40" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="1">
+      <c r="L40" t="s"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -2492,24 +2489,25 @@
       <c r="D41" t="s">
         <v>160</v>
       </c>
-      <c r="G41">
+      <c r="E41" t="s"/>
+      <c r="F41" t="s"/>
+      <c r="G41" t="n">
         <v>12250324</v>
       </c>
       <c r="H41" t="s">
         <v>161</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="n">
         <v>201703</v>
       </c>
-      <c r="J41">
-        <v>201808</v>
-      </c>
-      <c r="L41">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="1">
+      <c r="J41" t="s"/>
+      <c r="K41" t="s"/>
+      <c r="L41" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -2521,24 +2519,25 @@
       <c r="D42" t="s">
         <v>164</v>
       </c>
-      <c r="G42">
+      <c r="E42" t="s"/>
+      <c r="F42" t="s"/>
+      <c r="G42" t="n">
         <v>3080058</v>
       </c>
       <c r="H42" t="s">
         <v>165</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="n">
         <v>201704</v>
       </c>
-      <c r="J42">
-        <v>201808</v>
-      </c>
-      <c r="L42">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43" s="1">
+      <c r="J42" t="s"/>
+      <c r="K42" t="s"/>
+      <c r="L42" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -2550,24 +2549,25 @@
       <c r="D43" t="s">
         <v>168</v>
       </c>
-      <c r="G43">
+      <c r="E43" t="s"/>
+      <c r="F43" t="s"/>
+      <c r="G43" t="n">
         <v>13080006</v>
       </c>
       <c r="H43" t="s">
         <v>169</v>
       </c>
-      <c r="I43">
-        <v>201807</v>
-      </c>
-      <c r="J43">
-        <v>201808</v>
-      </c>
-      <c r="L43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44" s="1">
+      <c r="I43" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J43" t="s"/>
+      <c r="K43" t="s"/>
+      <c r="L43" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -2579,24 +2579,25 @@
       <c r="D44" t="s">
         <v>172</v>
       </c>
-      <c r="G44">
+      <c r="E44" t="s"/>
+      <c r="F44" t="s"/>
+      <c r="G44" t="n">
         <v>13080006</v>
       </c>
       <c r="H44" t="s">
         <v>169</v>
       </c>
-      <c r="I44">
-        <v>201807</v>
-      </c>
-      <c r="J44">
-        <v>201808</v>
-      </c>
-      <c r="L44">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A45" s="1">
+      <c r="I44" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J44" t="s"/>
+      <c r="K44" t="s"/>
+      <c r="L44" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -2608,24 +2609,25 @@
       <c r="D45" t="s">
         <v>175</v>
       </c>
-      <c r="G45">
+      <c r="E45" t="s"/>
+      <c r="F45" t="s"/>
+      <c r="G45" t="n">
         <v>4120018</v>
       </c>
       <c r="H45" t="s">
         <v>176</v>
       </c>
-      <c r="I45">
-        <v>201807</v>
-      </c>
-      <c r="J45">
-        <v>201808</v>
-      </c>
-      <c r="L45">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="1">
+      <c r="I45" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J45" t="s"/>
+      <c r="K45" t="s"/>
+      <c r="L45" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -2637,24 +2639,25 @@
       <c r="D46" t="s">
         <v>179</v>
       </c>
-      <c r="G46">
+      <c r="E46" t="s"/>
+      <c r="F46" t="s"/>
+      <c r="G46" t="n">
         <v>8200001</v>
       </c>
       <c r="H46" t="s">
         <v>180</v>
       </c>
-      <c r="I46">
-        <v>201807</v>
-      </c>
-      <c r="J46">
-        <v>201808</v>
-      </c>
-      <c r="L46">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A47" s="1">
+      <c r="I46" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J46" t="s"/>
+      <c r="K46" t="s"/>
+      <c r="L46" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -2666,24 +2669,25 @@
       <c r="D47" t="s">
         <v>183</v>
       </c>
-      <c r="G47">
+      <c r="E47" t="s"/>
+      <c r="F47" t="s"/>
+      <c r="G47" t="n">
         <v>8200001</v>
       </c>
       <c r="H47" t="s">
         <v>180</v>
       </c>
-      <c r="I47">
-        <v>201807</v>
-      </c>
-      <c r="J47">
-        <v>201808</v>
-      </c>
-      <c r="L47">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A48" s="1">
+      <c r="I47" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J47" t="s"/>
+      <c r="K47" t="s"/>
+      <c r="L47" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B48" t="s">
@@ -2695,24 +2699,25 @@
       <c r="D48" t="s">
         <v>186</v>
       </c>
-      <c r="G48">
+      <c r="E48" t="s"/>
+      <c r="F48" t="s"/>
+      <c r="G48" t="n">
         <v>4120018</v>
       </c>
       <c r="H48" t="s">
         <v>176</v>
       </c>
-      <c r="I48">
-        <v>201807</v>
-      </c>
-      <c r="J48">
-        <v>201808</v>
-      </c>
-      <c r="L48">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A49" s="1">
+      <c r="I48" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J48" t="s"/>
+      <c r="K48" t="s"/>
+      <c r="L48" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -2724,24 +2729,25 @@
       <c r="D49" t="s">
         <v>179</v>
       </c>
-      <c r="G49">
+      <c r="E49" t="s"/>
+      <c r="F49" t="s"/>
+      <c r="G49" t="n">
         <v>8200001</v>
       </c>
       <c r="H49" t="s">
         <v>180</v>
       </c>
-      <c r="I49">
-        <v>201807</v>
-      </c>
-      <c r="J49">
-        <v>201808</v>
-      </c>
-      <c r="L49">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A50" s="1">
+      <c r="I49" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J49" t="s"/>
+      <c r="K49" t="s"/>
+      <c r="L49" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B50" t="s">
@@ -2753,24 +2759,25 @@
       <c r="D50" t="s">
         <v>190</v>
       </c>
-      <c r="G50">
+      <c r="E50" t="s"/>
+      <c r="F50" t="s"/>
+      <c r="G50" t="n">
         <v>8170046</v>
       </c>
       <c r="H50" t="s">
         <v>191</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="n">
         <v>201806</v>
       </c>
-      <c r="J50">
-        <v>201808</v>
-      </c>
-      <c r="L50">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A51" s="1">
+      <c r="J50" t="s"/>
+      <c r="K50" t="s"/>
+      <c r="L50" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -2782,24 +2789,25 @@
       <c r="D51" t="s">
         <v>194</v>
       </c>
-      <c r="G51">
+      <c r="E51" t="s"/>
+      <c r="F51" t="s"/>
+      <c r="G51" t="n">
         <v>13230007</v>
       </c>
       <c r="H51" t="s">
         <v>195</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="n">
         <v>201701</v>
       </c>
-      <c r="J51">
-        <v>201808</v>
-      </c>
-      <c r="L51">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A52" s="1">
+      <c r="J51" t="s"/>
+      <c r="K51" t="s"/>
+      <c r="L51" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B52" t="s">
@@ -2811,24 +2819,25 @@
       <c r="D52" t="s">
         <v>198</v>
       </c>
-      <c r="G52">
+      <c r="E52" t="s"/>
+      <c r="F52" t="s"/>
+      <c r="G52" t="n">
         <v>26240167</v>
       </c>
       <c r="H52" t="s">
         <v>199</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="n">
         <v>201803</v>
       </c>
-      <c r="J52">
-        <v>201808</v>
-      </c>
-      <c r="L52">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A53" s="1">
+      <c r="J52" t="s"/>
+      <c r="K52" t="s"/>
+      <c r="L52" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B53" t="s">
@@ -2840,24 +2849,25 @@
       <c r="D53" t="s">
         <v>202</v>
       </c>
-      <c r="G53">
+      <c r="E53" t="s"/>
+      <c r="F53" t="s"/>
+      <c r="G53" t="n">
         <v>26240167</v>
       </c>
       <c r="H53" t="s">
         <v>199</v>
       </c>
-      <c r="I53">
-        <v>201807</v>
-      </c>
-      <c r="J53">
-        <v>201808</v>
-      </c>
-      <c r="L53">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A54" s="1">
+      <c r="I53" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J53" t="s"/>
+      <c r="K53" t="s"/>
+      <c r="L53" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B54" t="s">
@@ -2869,24 +2879,25 @@
       <c r="D54" t="s">
         <v>198</v>
       </c>
-      <c r="G54">
+      <c r="E54" t="s"/>
+      <c r="F54" t="s"/>
+      <c r="G54" t="n">
         <v>26240167</v>
       </c>
       <c r="H54" t="s">
         <v>199</v>
       </c>
-      <c r="I54">
-        <v>201807</v>
-      </c>
-      <c r="J54">
-        <v>201808</v>
-      </c>
-      <c r="L54">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A55" s="1">
+      <c r="I54" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J54" t="s"/>
+      <c r="K54" t="s"/>
+      <c r="L54" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B55" t="s">
@@ -2898,24 +2909,25 @@
       <c r="D55" t="s">
         <v>206</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>23120162</v>
       </c>
       <c r="F55" t="s">
         <v>207</v>
       </c>
-      <c r="I55">
-        <v>201807</v>
-      </c>
-      <c r="J55">
-        <v>201808</v>
-      </c>
-      <c r="K55">
+      <c r="G55" t="s"/>
+      <c r="H55" t="s"/>
+      <c r="I55" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J55" t="s"/>
+      <c r="K55" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A56" s="1">
+      <c r="L55" t="s"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B56" t="s">
@@ -2927,24 +2939,25 @@
       <c r="D56" t="s">
         <v>210</v>
       </c>
-      <c r="G56">
+      <c r="E56" t="s"/>
+      <c r="F56" t="s"/>
+      <c r="G56" t="n">
         <v>26100202</v>
       </c>
       <c r="H56" t="s">
         <v>211</v>
       </c>
-      <c r="I56">
-        <v>201807</v>
-      </c>
-      <c r="J56">
-        <v>201808</v>
-      </c>
-      <c r="L56">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A57" s="1">
+      <c r="I56" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J56" t="s"/>
+      <c r="K56" t="s"/>
+      <c r="L56" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B57" t="s">
@@ -2956,24 +2969,25 @@
       <c r="D57" t="s">
         <v>214</v>
       </c>
-      <c r="G57">
+      <c r="E57" t="s"/>
+      <c r="F57" t="s"/>
+      <c r="G57" t="n">
         <v>13180006</v>
       </c>
       <c r="H57" t="s">
         <v>215</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="n">
         <v>201802</v>
       </c>
-      <c r="J57">
-        <v>201808</v>
-      </c>
-      <c r="L57">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A58" s="1">
+      <c r="J57" t="s"/>
+      <c r="K57" t="s"/>
+      <c r="L57" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B58" t="s">
@@ -2985,24 +2999,25 @@
       <c r="D58" t="s">
         <v>218</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>26250388</v>
       </c>
       <c r="F58" t="s">
         <v>219</v>
       </c>
-      <c r="I58">
+      <c r="G58" t="s"/>
+      <c r="H58" t="s"/>
+      <c r="I58" t="n">
         <v>201803</v>
       </c>
-      <c r="J58">
-        <v>201808</v>
-      </c>
-      <c r="K58">
+      <c r="J58" t="s"/>
+      <c r="K58" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A59" s="1">
+      <c r="L58" t="s"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B59" t="s">
@@ -3014,24 +3029,25 @@
       <c r="D59" t="s">
         <v>222</v>
       </c>
-      <c r="G59">
+      <c r="E59" t="s"/>
+      <c r="F59" t="s"/>
+      <c r="G59" t="n">
         <v>23200002</v>
       </c>
       <c r="H59" t="s">
         <v>223</v>
       </c>
-      <c r="I59">
+      <c r="I59" t="n">
         <v>201804</v>
       </c>
-      <c r="J59">
-        <v>201808</v>
-      </c>
-      <c r="L59">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A60" s="1">
+      <c r="J59" t="s"/>
+      <c r="K59" t="s"/>
+      <c r="L59" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B60" t="s">
@@ -3043,24 +3059,25 @@
       <c r="D60" t="s">
         <v>226</v>
       </c>
-      <c r="G60">
+      <c r="E60" t="s"/>
+      <c r="F60" t="s"/>
+      <c r="G60" t="n">
         <v>13180006</v>
       </c>
       <c r="H60" t="s">
         <v>215</v>
       </c>
-      <c r="I60">
+      <c r="I60" t="n">
         <v>201804</v>
       </c>
-      <c r="J60">
-        <v>201808</v>
-      </c>
-      <c r="L60">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A61" s="1">
+      <c r="J60" t="s"/>
+      <c r="K60" t="s"/>
+      <c r="L60" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B61" t="s">
@@ -3072,24 +3089,25 @@
       <c r="D61" t="s">
         <v>229</v>
       </c>
-      <c r="G61">
+      <c r="E61" t="s"/>
+      <c r="F61" t="s"/>
+      <c r="G61" t="n">
         <v>13180006</v>
       </c>
       <c r="H61" t="s">
         <v>215</v>
       </c>
-      <c r="I61">
+      <c r="I61" t="n">
         <v>201805</v>
       </c>
-      <c r="J61">
-        <v>201808</v>
-      </c>
-      <c r="L61">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A62" s="1">
+      <c r="J61" t="s"/>
+      <c r="K61" t="s"/>
+      <c r="L61" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B62" t="s">
@@ -3101,24 +3119,25 @@
       <c r="D62" t="s">
         <v>232</v>
       </c>
-      <c r="G62">
+      <c r="E62" t="s"/>
+      <c r="F62" t="s"/>
+      <c r="G62" t="n">
         <v>13180006</v>
       </c>
       <c r="H62" t="s">
         <v>215</v>
       </c>
-      <c r="I62">
+      <c r="I62" t="n">
         <v>201805</v>
       </c>
-      <c r="J62">
-        <v>201808</v>
-      </c>
-      <c r="L62">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A63" s="1">
+      <c r="J62" t="s"/>
+      <c r="K62" t="s"/>
+      <c r="L62" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B63" t="s">
@@ -3130,24 +3149,25 @@
       <c r="D63" t="s">
         <v>235</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>4240047</v>
       </c>
       <c r="F63" t="s">
         <v>236</v>
       </c>
-      <c r="I63">
+      <c r="G63" t="s"/>
+      <c r="H63" t="s"/>
+      <c r="I63" t="n">
         <v>201806</v>
       </c>
-      <c r="J63">
-        <v>201808</v>
-      </c>
-      <c r="K63">
+      <c r="J63" t="s"/>
+      <c r="K63" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A64" s="1">
+      <c r="L63" t="s"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B64" t="s">
@@ -3159,24 +3179,25 @@
       <c r="D64" t="s">
         <v>239</v>
       </c>
-      <c r="G64">
+      <c r="E64" t="s"/>
+      <c r="F64" t="s"/>
+      <c r="G64" t="n">
         <v>13180006</v>
       </c>
       <c r="H64" t="s">
         <v>215</v>
       </c>
-      <c r="I64">
-        <v>201807</v>
-      </c>
-      <c r="J64">
-        <v>201808</v>
-      </c>
-      <c r="L64">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A65" s="1">
+      <c r="I64" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J64" t="s"/>
+      <c r="K64" t="s"/>
+      <c r="L64" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B65" t="s">
@@ -3188,24 +3209,25 @@
       <c r="D65" t="s">
         <v>242</v>
       </c>
-      <c r="G65">
+      <c r="E65" t="s"/>
+      <c r="F65" t="s"/>
+      <c r="G65" t="n">
         <v>13230011</v>
       </c>
       <c r="H65" t="s">
         <v>243</v>
       </c>
-      <c r="I65">
-        <v>201807</v>
-      </c>
-      <c r="J65">
-        <v>201808</v>
-      </c>
-      <c r="L65">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A66" s="1">
+      <c r="I65" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J65" t="s"/>
+      <c r="K65" t="s"/>
+      <c r="L65" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B66" t="s">
@@ -3217,24 +3239,25 @@
       <c r="D66" t="s">
         <v>246</v>
       </c>
-      <c r="G66">
+      <c r="E66" t="s"/>
+      <c r="F66" t="s"/>
+      <c r="G66" t="n">
         <v>13180006</v>
       </c>
       <c r="H66" t="s">
         <v>215</v>
       </c>
-      <c r="I66">
-        <v>201807</v>
-      </c>
-      <c r="J66">
-        <v>201808</v>
-      </c>
-      <c r="L66">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A67" s="1">
+      <c r="I66" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J66" t="s"/>
+      <c r="K66" t="s"/>
+      <c r="L66" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B67" t="s">
@@ -3246,24 +3269,25 @@
       <c r="D67" t="s">
         <v>249</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>17100016</v>
       </c>
       <c r="F67" t="s">
         <v>250</v>
       </c>
-      <c r="I67">
-        <v>201807</v>
-      </c>
-      <c r="J67">
-        <v>201808</v>
-      </c>
-      <c r="K67">
+      <c r="G67" t="s"/>
+      <c r="H67" t="s"/>
+      <c r="I67" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J67" t="s"/>
+      <c r="K67" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A68" s="1">
+      <c r="L67" t="s"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B68" t="s">
@@ -3275,24 +3299,25 @@
       <c r="D68" t="s">
         <v>253</v>
       </c>
-      <c r="G68">
+      <c r="E68" t="s"/>
+      <c r="F68" t="s"/>
+      <c r="G68" t="n">
         <v>26250388</v>
       </c>
       <c r="H68" t="s">
         <v>219</v>
       </c>
-      <c r="I68">
-        <v>201807</v>
-      </c>
-      <c r="J68">
-        <v>201808</v>
-      </c>
-      <c r="L68">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A69" s="1">
+      <c r="I68" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J68" t="s"/>
+      <c r="K68" t="s"/>
+      <c r="L68" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B69" t="s">
@@ -3304,24 +3329,25 @@
       <c r="D69" t="s">
         <v>256</v>
       </c>
-      <c r="G69">
+      <c r="E69" t="s"/>
+      <c r="F69" t="s"/>
+      <c r="G69" t="n">
         <v>13230011</v>
       </c>
       <c r="H69" t="s">
         <v>243</v>
       </c>
-      <c r="I69">
-        <v>201807</v>
-      </c>
-      <c r="J69">
-        <v>201808</v>
-      </c>
-      <c r="L69">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A70" s="1">
+      <c r="I69" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J69" t="s"/>
+      <c r="K69" t="s"/>
+      <c r="L69" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B70" t="s">
@@ -3333,24 +3359,25 @@
       <c r="D70" t="s">
         <v>259</v>
       </c>
-      <c r="G70">
+      <c r="E70" t="s"/>
+      <c r="F70" t="s"/>
+      <c r="G70" t="n">
         <v>26250388</v>
       </c>
       <c r="H70" t="s">
         <v>219</v>
       </c>
-      <c r="I70">
-        <v>201807</v>
-      </c>
-      <c r="J70">
-        <v>201808</v>
-      </c>
-      <c r="L70">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A71" s="1">
+      <c r="I70" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J70" t="s"/>
+      <c r="K70" t="s"/>
+      <c r="L70" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B71" t="s">
@@ -3362,24 +3389,25 @@
       <c r="D71" t="s">
         <v>262</v>
       </c>
-      <c r="G71">
+      <c r="E71" t="s"/>
+      <c r="F71" t="s"/>
+      <c r="G71" t="n">
         <v>26040026</v>
       </c>
       <c r="H71" t="s">
         <v>263</v>
       </c>
-      <c r="I71">
+      <c r="I71" t="n">
         <v>201702</v>
       </c>
-      <c r="J71">
-        <v>201808</v>
-      </c>
-      <c r="L71">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A72" s="1">
+      <c r="J71" t="s"/>
+      <c r="K71" t="s"/>
+      <c r="L71" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B72" t="s">
@@ -3391,24 +3419,25 @@
       <c r="D72" t="s">
         <v>266</v>
       </c>
-      <c r="G72">
+      <c r="E72" t="s"/>
+      <c r="F72" t="s"/>
+      <c r="G72" t="n">
         <v>17170010</v>
       </c>
       <c r="H72" t="s">
         <v>267</v>
       </c>
-      <c r="I72">
+      <c r="I72" t="n">
         <v>201704</v>
       </c>
-      <c r="J72">
-        <v>201808</v>
-      </c>
-      <c r="L72">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A73" s="1">
+      <c r="J72" t="s"/>
+      <c r="K72" t="s"/>
+      <c r="L72" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B73" t="s">
@@ -3420,24 +3449,25 @@
       <c r="D73" t="s">
         <v>266</v>
       </c>
-      <c r="G73">
+      <c r="E73" t="s"/>
+      <c r="F73" t="s"/>
+      <c r="G73" t="n">
         <v>17170010</v>
       </c>
       <c r="H73" t="s">
         <v>267</v>
       </c>
-      <c r="I73">
+      <c r="I73" t="n">
         <v>201708</v>
       </c>
-      <c r="J73">
-        <v>201808</v>
-      </c>
-      <c r="L73">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A74" s="1">
+      <c r="J73" t="s"/>
+      <c r="K73" t="s"/>
+      <c r="L73" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B74" t="s">
@@ -3449,24 +3479,25 @@
       <c r="D74" t="s">
         <v>271</v>
       </c>
-      <c r="G74">
+      <c r="E74" t="s"/>
+      <c r="F74" t="s"/>
+      <c r="G74" t="n">
         <v>19240061</v>
       </c>
       <c r="H74" t="s">
         <v>272</v>
       </c>
-      <c r="I74">
-        <v>201807</v>
-      </c>
-      <c r="J74">
-        <v>201808</v>
-      </c>
-      <c r="L74">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A75" s="1">
+      <c r="I74" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J74" t="s"/>
+      <c r="K74" t="s"/>
+      <c r="L74" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B75" t="s">
@@ -3478,24 +3509,25 @@
       <c r="D75" t="s">
         <v>275</v>
       </c>
-      <c r="G75">
+      <c r="E75" t="s"/>
+      <c r="F75" t="s"/>
+      <c r="G75" t="n">
         <v>8190022</v>
       </c>
       <c r="H75" t="s">
         <v>276</v>
       </c>
-      <c r="I75">
-        <v>201807</v>
-      </c>
-      <c r="J75">
-        <v>201808</v>
-      </c>
-      <c r="L75">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A76" s="1">
+      <c r="I75" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J75" t="s"/>
+      <c r="K75" t="s"/>
+      <c r="L75" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B76" t="s">
@@ -3507,24 +3539,25 @@
       <c r="D76" t="s">
         <v>275</v>
       </c>
-      <c r="G76">
+      <c r="E76" t="s"/>
+      <c r="F76" t="s"/>
+      <c r="G76" t="n">
         <v>8190022</v>
       </c>
       <c r="H76" t="s">
         <v>276</v>
       </c>
-      <c r="I76">
-        <v>201807</v>
-      </c>
-      <c r="J76">
-        <v>201808</v>
-      </c>
-      <c r="L76">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A77" s="1">
+      <c r="I76" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J76" t="s"/>
+      <c r="K76" t="s"/>
+      <c r="L76" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B77" t="s">
@@ -3536,24 +3569,25 @@
       <c r="D77" t="s">
         <v>280</v>
       </c>
-      <c r="G77">
+      <c r="E77" t="s"/>
+      <c r="F77" t="s"/>
+      <c r="G77" t="n">
         <v>26080137</v>
       </c>
       <c r="H77" t="s">
         <v>281</v>
       </c>
-      <c r="I77">
-        <v>201807</v>
-      </c>
-      <c r="J77">
-        <v>201808</v>
-      </c>
-      <c r="L77">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A78" s="1">
+      <c r="I77" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J77" t="s"/>
+      <c r="K77" t="s"/>
+      <c r="L77" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B78" t="s">
@@ -3565,24 +3599,25 @@
       <c r="D78" t="s">
         <v>280</v>
       </c>
-      <c r="G78">
+      <c r="E78" t="s"/>
+      <c r="F78" t="s"/>
+      <c r="G78" t="n">
         <v>26080137</v>
       </c>
       <c r="H78" t="s">
         <v>281</v>
       </c>
-      <c r="I78">
-        <v>201807</v>
-      </c>
-      <c r="J78">
-        <v>201808</v>
-      </c>
-      <c r="L78">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A79" s="1">
+      <c r="I78" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J78" t="s"/>
+      <c r="K78" t="s"/>
+      <c r="L78" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B79" t="s">
@@ -3594,24 +3629,25 @@
       <c r="D79" t="s">
         <v>285</v>
       </c>
-      <c r="G79">
+      <c r="E79" t="s"/>
+      <c r="F79" t="s"/>
+      <c r="G79" t="n">
         <v>8190022</v>
       </c>
       <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="I79">
-        <v>201807</v>
-      </c>
-      <c r="J79">
-        <v>201808</v>
-      </c>
-      <c r="L79">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A80" s="1">
+      <c r="I79" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J79" t="s"/>
+      <c r="K79" t="s"/>
+      <c r="L79" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B80" t="s">
@@ -3623,25 +3659,24 @@
       <c r="D80" t="s">
         <v>288</v>
       </c>
-      <c r="G80">
+      <c r="E80" t="s"/>
+      <c r="F80" t="s"/>
+      <c r="G80" t="n">
         <v>23260141</v>
       </c>
       <c r="H80" t="s">
         <v>289</v>
       </c>
-      <c r="I80">
-        <v>201807</v>
-      </c>
-      <c r="J80">
-        <v>201808</v>
-      </c>
-      <c r="L80">
+      <c r="I80" t="n">
+        <v>201807</v>
+      </c>
+      <c r="J80" t="s"/>
+      <c r="K80" t="s"/>
+      <c r="L80" t="n">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>